--- a/test/functional/options.xlsx
+++ b/test/functional/options.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Vizsgaremek\Forgalmi-Napl-\test\functional\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F547F5E7-60F3-468D-84EE-D989F35E3B27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932799C2-AB8D-4600-814D-04DFA5B20384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0B1E403B-62D6-4BAC-8265-82972F2241FE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>Sorszám</t>
   </si>
@@ -101,19 +101,6 @@
 Hiányzó adat</t>
   </si>
   <si>
-    <t>Régi jelszó = ""
-Új jelszó = "adminteszt"
-Új jelszó ismét = "adminteszt1"
-vagy
-Régi jelszó = "admin"
-Új jelszó = ""
-Új jelszó ismét = "adminteszt1"
-vagy
-Régi jelszó = "admin"
-Új jelszó = "adminteszt"
-Új jelszó ismét = ""</t>
-  </si>
-  <si>
     <t>Jelzés a hiányzó adatokról
 Ne történjen meg a módosítás</t>
   </si>
@@ -167,20 +154,118 @@
 Hiányzó adat</t>
   </si>
   <si>
+    <t>Jelzés a hiányzó adatkról
+Ne történjen módosítás</t>
+  </si>
+  <si>
+    <t>Funkcionális tesztek ( Beállítások - telefonszám)</t>
+  </si>
+  <si>
+    <t>Telefonszám módisítása</t>
+  </si>
+  <si>
+    <t>Telefonszám módisítása
+Rossz régi telefonszám</t>
+  </si>
+  <si>
+    <t>Telefonszám módisítása
+A telefonszámok nem egyeznek meg</t>
+  </si>
+  <si>
+    <t>Telefonszám módisítása
+Hiányzó adat</t>
+  </si>
+  <si>
+    <t>Régi telefonszám =  "06207777777"
+Új telefonszám = "06208888888"
+Új telefonszám ismét = "06208888888"</t>
+  </si>
+  <si>
+    <t>Régi telefonszám =  "06207777778"
+Új telefonszám = "06208888888"
+Új telefonszám ismét = "06208888888"</t>
+  </si>
+  <si>
+    <t>Régi telefonszám =  "06207777777"
+Új telefonszám = "06208888889"
+Új telefonszám ismét = "06208888880"</t>
+  </si>
+  <si>
+    <t>Telefonszán módosítás
+Új telefonszám rögzítése a felhasználónak</t>
+  </si>
+  <si>
+    <t>Jelzés a rossz régi telefonszámról
+Ne történjen módosítás</t>
+  </si>
+  <si>
+    <t>Jelzés, a telefonszámok nem egyeznek meg
+Ne történjen módosítás</t>
+  </si>
+  <si>
+    <t>Régi jelszó = ""
+Új jelszó = "adminteszt"
+Új jelszó ismét = "adminteszt1"</t>
+  </si>
+  <si>
+    <t>Régi jelszó = "admin"
+Új jelszó = ""
+Új jelszó ismét = "adminteszt1"</t>
+  </si>
+  <si>
+    <t>Régi jelszó = "admin"
+Új jelszó = "adminteszt"
+Új jelszó ismét = ""</t>
+  </si>
+  <si>
+    <t>Régi email = "admin@admin.hu"
+Új email = "admin@admin.hu"
+Új email ismét = ""</t>
+  </si>
+  <si>
+    <t>Régi email = "admin@admin.hu"
+Új email = ""
+Új email ismét = "admin@admin.hu"</t>
+  </si>
+  <si>
     <t>Régi email = ""
 Új email = "admin@admin.hu"
-Új email ismét = "admin@admin.hu"
-vagy
-Régi email = "admin@admin.hu"
-Új email = ""
-Új email ismét = "admin@admin.hu"
-vagy
-Régi email = "admin@admin.hu"
-Új email = "admin@admin.hu"
-Új email ismét = ""</t>
-  </si>
-  <si>
-    <t>Jelzés a hiányzó adatkról
+Új email ismét = "admin@admin.hu"</t>
+  </si>
+  <si>
+    <t>Régi telefonszám =  "06207777777"
+Új telefonszám = "06208888888"
+Új telefonszám ismét = ""</t>
+  </si>
+  <si>
+    <t>Régi telefonszám =  "06207777777"
+Új telefonszám = ""
+Új telefonszám ismét = "06208888888"</t>
+  </si>
+  <si>
+    <t>Régi telefonszám =  ""
+Új telefonszám = "06208888888"
+Új telefonszám ismét = "06208888888"</t>
+  </si>
+  <si>
+    <t>Email módisítása
+Létező email cím megadása</t>
+  </si>
+  <si>
+    <t>Régi email = "admin@admin.hu"
+Új email = "teszt1tanar@teszt.hu"
+Új email ismét = "teszt1tanar@teszt.hu"</t>
+  </si>
+  <si>
+    <t>Jelzés a foglalt emailről
+Ne történjen módosítás</t>
+  </si>
+  <si>
+    <t>Telefonszám módisítása
+Létező telefonszám megadása</t>
+  </si>
+  <si>
+    <t>Jelzés a foglalt telefonszámról
 Ne történjen módosítás</t>
   </si>
 </sst>
@@ -253,14 +338,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -576,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A360D597-A89B-4E8E-AB8F-818CBB412531}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,14 +678,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
     </row>
     <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -629,13 +714,13 @@
       <c r="B4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
@@ -646,16 +731,16 @@
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="3" t="s">
@@ -666,156 +751,435 @@
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="225" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>18</v>
+      <c r="E7" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>5</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>6</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A11" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>3</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>4</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>5</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>6</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>7</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="24" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C24" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D24" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F24" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="2" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="25" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>1</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="B25" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>2</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="B26" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="2" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
         <v>3</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="2" customFormat="1" ht="225" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="B27" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
         <v>4</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B28" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D28" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>5</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>6</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>7</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
